--- a/parsed_results.xlsx
+++ b/parsed_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121 kW </t>
+          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 kW </t>
+          <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99kW </t>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99kW </t>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -595,12 +595,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18.5-19.86 ton </t>
+          <t xml:space="preserve"> 18.5~19.86 </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 0.76-0.8 m³ </t>
+          <t xml:space="preserve"> 0.76~0.8 </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -612,117 +612,117 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7K </t>
+          <t xml:space="preserve"> DX210 </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,800 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.49 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX380LC-7K </t>
+          <t xml:space="preserve"> DX350LC-7K </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.2 ton </t>
+          <t xml:space="preserve"> 36,800 </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.25-2.32 m³ </t>
+          <t xml:space="preserve"> 1.49 </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
+          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX360LCA-7M </t>
+          <t xml:space="preserve"> DX380LC-7K </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.6 ton </t>
+          <t xml:space="preserve"> 40.2 </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.25-1.83 m³ </t>
+          <t xml:space="preserve"> 1.25 – 2.32 </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
+          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX490LC-7B </t>
+          <t xml:space="preserve"> DX360LCA-7M </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50,700 </t>
+          <t xml:space="preserve"> 37.6 </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.7 </t>
+          <t xml:space="preserve"> 1.25~1.83 </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 294 kW / 2,100 rpm </t>
+          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX530LC-7K </t>
+          <t xml:space="preserve"> DX350LC-5K </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 50.6 ton </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.14 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 289 kW (387.6 hp) </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7M </t>
+          <t xml:space="preserve"> DX380LC-5K </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -736,28 +736,6 @@
         </is>
       </c>
       <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX380LC-7M </t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
         <is>
           <t xml:space="preserve"> - </t>
         </is>

--- a/parsed_results.xlsx
+++ b/parsed_results.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bucket Capacity (m³) </t>
+          <t xml:space="preserve"> Bucket Capacity (㎥) </t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
+          <t xml:space="preserve"> 121 kW (165 PS) @2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -634,73 +634,73 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7K </t>
+          <t xml:space="preserve"> DX220 </t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 36,800 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.49 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX380LC-7K </t>
+          <t xml:space="preserve"> DX230 </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 40.2 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.25 – 2.32 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX360LCA-7M </t>
+          <t xml:space="preserve"> DX240 </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 37.6 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 1.25~1.83 </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
+          <t xml:space="preserve"> - </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-5K </t>
+          <t xml:space="preserve"> DX250 </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -722,7 +722,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX380LC-5K </t>
+          <t xml:space="preserve"> DX260 </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">

--- a/parsed_results.xlsx
+++ b/parsed_results.xlsx
@@ -1,32 +1,14 @@
-
-<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
-  <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
-  </bookViews>
-  <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result_asia" sheetId="1" state="visible" r:id="rId1"/>
-  </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
-</workbook>
-</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +19,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +27,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -417,331 +390,4 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Model </t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Operating Weight (kg) </t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bucket Capacity (㎥) </t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Engine Power </t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --- </t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --- </t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --- </t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> --- </t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX210W-7B </t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 20,100 </t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.86 </t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 121 kW (165 PS) @2,000 rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX150W-7B </t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 13,520 </t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.76 </t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX160W </t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.24 </t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX140W </t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.24 </t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX190W-7 </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18,320 </t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.8 </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 121/1,900 kW/rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX190WA </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 18.5~19.86 </t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 0.76~0.8 </t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 116/1,900 kW/rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX210 </t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX220 </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX230 </t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX240 </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX250 </t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX260 </t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> - </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/parsed_results.xlsx
+++ b/parsed_results.xlsx
@@ -1,14 +1,32 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+  </bookViews>
+  <sheets>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Result_asia" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
+</file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -19,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -27,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -390,4 +417,199 @@
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
 </a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Model </t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Operating Weight (kg) </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bucket Capacity (m³) </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engine Power (kW) </t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX210W-7B </t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 20,100 </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.86 </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX150W-7B </t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 13,520 </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76 </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX160W </t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX140W </t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99 </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX190W-7 </t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18,320 </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.8 </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> DX190WA </t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 18.5-19.86 </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76-0.8 </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 116 </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/parsed_results.xlsx
+++ b/parsed_results.xlsx
@@ -446,12 +446,12 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bucket Capacity (m³) </t>
+          <t xml:space="preserve"> Bucket Capacity (㎥) </t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Engine Power (kW) </t>
+          <t xml:space="preserve"> Engine Power (kW/PS/hp) @ RPM </t>
         </is>
       </c>
     </row>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121 </t>
+          <t xml:space="preserve"> 121/165 PS @ 2,000 </t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 100 </t>
+          <t xml:space="preserve"> 100/136 PS @ 2,000 </t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 99/132 HP @ 2,000 </t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99 </t>
+          <t xml:space="preserve"> 99/132 HP @ 2,000 </t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 121 </t>
+          <t xml:space="preserve"> 121/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 18.5-19.86 </t>
+          <t xml:space="preserve"> 18.5-19.86 ton </t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 116 </t>
+          <t xml:space="preserve"> 116/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
